--- a/set.xlsx
+++ b/set.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hn_01\OneDrive\Desktop\CS50 Course\assignguru\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hn_01\OneDrive\Desktop\django-assignguru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524F5D11-1B99-490A-AC6B-07A259DACA20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EFECAD-8809-4F28-95B9-1C988E8BB5D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="253">
   <si>
     <t>Principles of Marketing, 17e (Kotler/Armstrong)</t>
   </si>
@@ -496,6 +496,300 @@
   </si>
   <si>
     <t>Final Review Telling Time (chapter 1)</t>
+  </si>
+  <si>
+    <t>Chapter 1 - Introduction to Accounting</t>
+  </si>
+  <si>
+    <t>Accounting definition</t>
+  </si>
+  <si>
+    <t>Accounting chapter 1-8</t>
+  </si>
+  <si>
+    <t>Financial Accounting</t>
+  </si>
+  <si>
+    <t>Accounting Chapters 1-13</t>
+  </si>
+  <si>
+    <t>Accounting Chapter 1-3</t>
+  </si>
+  <si>
+    <t>Accounting Chapter 1-4 (Financial Accounting)</t>
+  </si>
+  <si>
+    <t>Financial Accounting (Ch 1-4)</t>
+  </si>
+  <si>
+    <t>Accounting - Chapter 1</t>
+  </si>
+  <si>
+    <t>Accounting 1</t>
+  </si>
+  <si>
+    <t>Financial Accounting Ch. 1-3</t>
+  </si>
+  <si>
+    <t>Accounting &amp; Finance</t>
+  </si>
+  <si>
+    <t>Accounting Exam 1 Ch. 1-4</t>
+  </si>
+  <si>
+    <t>Accounting chapter 1, 2, 3</t>
+  </si>
+  <si>
+    <t>Chapter 1 Basic Accounting</t>
+  </si>
+  <si>
+    <t>Principles of Financial Accounting Chapters 1-4 Vocabulary</t>
+  </si>
+  <si>
+    <t>Financial Accounting Flashcards</t>
+  </si>
+  <si>
+    <t>Accounting Chapter 1-9</t>
+  </si>
+  <si>
+    <t>What is accounting!!!?</t>
+  </si>
+  <si>
+    <t>Chapter 1- Introduction to Accounting</t>
+  </si>
+  <si>
+    <t>Accounting Terms</t>
+  </si>
+  <si>
+    <t>INTRO TO FINANCIAL ACCOUNTING</t>
+  </si>
+  <si>
+    <t>Financial Accounting: Types of Accounts</t>
+  </si>
+  <si>
+    <t>Financial Accounting True and False</t>
+  </si>
+  <si>
+    <t>20 Basic Accounting Terms</t>
+  </si>
+  <si>
+    <t>Accounting IGCSE</t>
+  </si>
+  <si>
+    <t>Accounting Terms Chapter 1</t>
+  </si>
+  <si>
+    <t>Finance Exam 1 (Chapters 1-4)</t>
+  </si>
+  <si>
+    <t>Finance Test #1</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Finance Test Questions</t>
+  </si>
+  <si>
+    <t>Principles of Finance Test 1 Chapters 1-4</t>
+  </si>
+  <si>
+    <t>Finance Chapter 1</t>
+  </si>
+  <si>
+    <t>Finance Exam 1</t>
+  </si>
+  <si>
+    <t>Business Finance (EXAM 1--Ch. 1-5)</t>
+  </si>
+  <si>
+    <t>Finance: Exam 1</t>
+  </si>
+  <si>
+    <t>Business Finance Chapter 1 Definition</t>
+  </si>
+  <si>
+    <t>Business Finance Chapter 1-6</t>
+  </si>
+  <si>
+    <t>Finance 306 - Exam 1</t>
+  </si>
+  <si>
+    <t>Finance Chapter 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>General Finance Terms</t>
+  </si>
+  <si>
+    <t>Types of Financial Markets</t>
+  </si>
+  <si>
+    <t>Chapter 1 Introduction to Personal Finance</t>
+  </si>
+  <si>
+    <t>Business Finance Chapter 1 "An Overview of Financial Management"</t>
+  </si>
+  <si>
+    <t>DECA Finance Terms</t>
+  </si>
+  <si>
+    <t>Finance Quiz</t>
+  </si>
+  <si>
+    <t>Finance Chapter 1,2,3</t>
+  </si>
+  <si>
+    <t>Business Studies - Finance</t>
+  </si>
+  <si>
+    <t>FINANCE TEST 2</t>
+  </si>
+  <si>
+    <t>FBLA Personal Finance Study Guide</t>
+  </si>
+  <si>
+    <t>DECA Finance</t>
+  </si>
+  <si>
+    <t>DECA Principles of Finance</t>
+  </si>
+  <si>
+    <t>DECA finance</t>
+  </si>
+  <si>
+    <t>DECA Finance Cluster Exam</t>
+  </si>
+  <si>
+    <t>DECA Finance Cluster Exam Terms</t>
+  </si>
+  <si>
+    <t>DECA Performance Indicators</t>
+  </si>
+  <si>
+    <t>Deca Finance Cluster Exam</t>
+  </si>
+  <si>
+    <t>DECA - Principles of Finance</t>
+  </si>
+  <si>
+    <t>DECA</t>
+  </si>
+  <si>
+    <t>Finance Vocab DECA</t>
+  </si>
+  <si>
+    <t>2012 DECA Finance Cluster Exam</t>
+  </si>
+  <si>
+    <t>DECA Finance Vocabulary Review</t>
+  </si>
+  <si>
+    <t>DECA Finance Business Administration Core Exam (Practice)</t>
+  </si>
+  <si>
+    <t>DECA: Finance Terms</t>
+  </si>
+  <si>
+    <t>Deca Finance</t>
+  </si>
+  <si>
+    <t>Personal Finance</t>
+  </si>
+  <si>
+    <t>Personal Finance REVIEW</t>
+  </si>
+  <si>
+    <t>Personal finance final exam`</t>
+  </si>
+  <si>
+    <t>Personal Finance Final</t>
+  </si>
+  <si>
+    <t>Chapter 12 Personal Finance</t>
+  </si>
+  <si>
+    <t>personal finance chapter 13</t>
+  </si>
+  <si>
+    <t>Personal Finance Ch 4</t>
+  </si>
+  <si>
+    <t>Personal Finance Exam 1</t>
+  </si>
+  <si>
+    <t>personal finance chapter 18</t>
+  </si>
+  <si>
+    <t>Personal Finance final</t>
+  </si>
+  <si>
+    <t>personal finance final exam</t>
+  </si>
+  <si>
+    <t>Personal finance</t>
+  </si>
+  <si>
+    <t>Personal Finance Final Exam</t>
+  </si>
+  <si>
+    <t>Personal &amp; Family Finance Final</t>
+  </si>
+  <si>
+    <t>Personal Finance Chapter 9 Test</t>
+  </si>
+  <si>
+    <t>Chapter 19 personal finance</t>
+  </si>
+  <si>
+    <t>Personal Finance-Vb</t>
+  </si>
+  <si>
+    <t>personal finance ch. 5</t>
+  </si>
+  <si>
+    <t>Personal Finance Chapter 2</t>
+  </si>
+  <si>
+    <t>Personal Finance Chapter 1</t>
+  </si>
+  <si>
+    <t>personal finance</t>
+  </si>
+  <si>
+    <t>Personal Finance- Chapter 7 Review</t>
+  </si>
+  <si>
+    <t>Personal Finance Unit 4 Vocab</t>
+  </si>
+  <si>
+    <t>Personal family finance final</t>
+  </si>
+  <si>
+    <t>personal finance chapter 17</t>
+  </si>
+  <si>
+    <t>Personal Finance Exam 4</t>
+  </si>
+  <si>
+    <t>Personal Finance Quiz 5, Personal Finance Quiz 4, Personal Finance Quiz 3, Personal Finance Ch 1 Quiz</t>
+  </si>
+  <si>
+    <t>Chapter 2 - Personal Finance</t>
+  </si>
+  <si>
+    <t>Personal Finance Chapter 3 SG</t>
+  </si>
+  <si>
+    <t>personal finance chapter 12</t>
+  </si>
+  <si>
+    <t>Personal Finance Ch. 3</t>
+  </si>
+  <si>
+    <t>personal finance exam (ch 5-7)</t>
+  </si>
+  <si>
+    <t>PERSONAL FINANCE REVIEW</t>
   </si>
 </sst>
 </file>
@@ -1336,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3065,6 +3359,1447 @@
         <v>10</v>
       </c>
     </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>3030905</v>
+      </c>
+      <c r="B157" t="s">
+        <v>155</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>93615968</v>
+      </c>
+      <c r="B158" t="s">
+        <v>156</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>17857385</v>
+      </c>
+      <c r="B159" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>23529908</v>
+      </c>
+      <c r="B160" t="s">
+        <v>158</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>87927595</v>
+      </c>
+      <c r="B161" t="s">
+        <v>159</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>91966367</v>
+      </c>
+      <c r="B162" t="s">
+        <v>160</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>71581792</v>
+      </c>
+      <c r="B163" t="s">
+        <v>161</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>119892997</v>
+      </c>
+      <c r="B164" t="s">
+        <v>162</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>6467145</v>
+      </c>
+      <c r="B165" t="s">
+        <v>163</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>50138111</v>
+      </c>
+      <c r="B166" t="s">
+        <v>164</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>19471306</v>
+      </c>
+      <c r="B167" t="s">
+        <v>165</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2187577</v>
+      </c>
+      <c r="B168" t="s">
+        <v>166</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>122792239</v>
+      </c>
+      <c r="B169" t="s">
+        <v>167</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>13447303</v>
+      </c>
+      <c r="B170" t="s">
+        <v>168</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>47507495</v>
+      </c>
+      <c r="B171" t="s">
+        <v>169</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>8078283</v>
+      </c>
+      <c r="B172" t="s">
+        <v>170</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>24697880</v>
+      </c>
+      <c r="B173" t="s">
+        <v>171</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>41447789</v>
+      </c>
+      <c r="B174" t="s">
+        <v>172</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>232883799</v>
+      </c>
+      <c r="B175" t="s">
+        <v>173</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>66067421</v>
+      </c>
+      <c r="B176" t="s">
+        <v>174</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>68320810</v>
+      </c>
+      <c r="B177" t="s">
+        <v>175</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>4296306</v>
+      </c>
+      <c r="B178" t="s">
+        <v>176</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>90684810</v>
+      </c>
+      <c r="B179" t="s">
+        <v>177</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>109871784</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>136657823</v>
+      </c>
+      <c r="B181" t="s">
+        <v>178</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>45686228</v>
+      </c>
+      <c r="B182" t="s">
+        <v>179</v>
+      </c>
+      <c r="C182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>315677138</v>
+      </c>
+      <c r="B183" t="s">
+        <v>180</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>61730463</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>26461825</v>
+      </c>
+      <c r="B185" t="s">
+        <v>181</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>69547559</v>
+      </c>
+      <c r="B186" t="s">
+        <v>182</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>26311865</v>
+      </c>
+      <c r="B187" t="s">
+        <v>183</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>39183960</v>
+      </c>
+      <c r="B188" t="s">
+        <v>184</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>24992628</v>
+      </c>
+      <c r="B189" t="s">
+        <v>185</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>49458647</v>
+      </c>
+      <c r="B190" t="s">
+        <v>186</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>89380845</v>
+      </c>
+      <c r="B191" t="s">
+        <v>187</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>18728957</v>
+      </c>
+      <c r="B192" t="s">
+        <v>188</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>71587492</v>
+      </c>
+      <c r="B193" t="s">
+        <v>184</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>182704342</v>
+      </c>
+      <c r="B194" t="s">
+        <v>189</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>27659726</v>
+      </c>
+      <c r="B195" t="s">
+        <v>190</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>30181272</v>
+      </c>
+      <c r="B196" t="s">
+        <v>191</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>116650163</v>
+      </c>
+      <c r="B197" t="s">
+        <v>192</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>67756023</v>
+      </c>
+      <c r="B198" t="s">
+        <v>193</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>93581894</v>
+      </c>
+      <c r="B199" t="s">
+        <v>194</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>8755141</v>
+      </c>
+      <c r="B200" t="s">
+        <v>195</v>
+      </c>
+      <c r="C200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>73662333</v>
+      </c>
+      <c r="B201" t="s">
+        <v>196</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>392943584</v>
+      </c>
+      <c r="B202" t="s">
+        <v>197</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>116278018</v>
+      </c>
+      <c r="B203" t="s">
+        <v>198</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>70310064</v>
+      </c>
+      <c r="B204" t="s">
+        <v>199</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>49214197</v>
+      </c>
+      <c r="B205" t="s">
+        <v>200</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>148588749</v>
+      </c>
+      <c r="B206" t="s">
+        <v>201</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>21543843</v>
+      </c>
+      <c r="B207" t="s">
+        <v>202</v>
+      </c>
+      <c r="C207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>97665376</v>
+      </c>
+      <c r="B208" t="s">
+        <v>203</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>36978136</v>
+      </c>
+      <c r="B209" t="s">
+        <v>204</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>226422699</v>
+      </c>
+      <c r="B210" t="s">
+        <v>205</v>
+      </c>
+      <c r="C210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>558485720</v>
+      </c>
+      <c r="B211" t="s">
+        <v>205</v>
+      </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>558484736</v>
+      </c>
+      <c r="B212" t="s">
+        <v>206</v>
+      </c>
+      <c r="C212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>551620460</v>
+      </c>
+      <c r="B213" t="s">
+        <v>207</v>
+      </c>
+      <c r="C213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>546303697</v>
+      </c>
+      <c r="B214" t="s">
+        <v>208</v>
+      </c>
+      <c r="C214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>559335042</v>
+      </c>
+      <c r="B215" t="s">
+        <v>205</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>561273996</v>
+      </c>
+      <c r="B216" t="s">
+        <v>209</v>
+      </c>
+      <c r="C216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>565422540</v>
+      </c>
+      <c r="B217" t="s">
+        <v>209</v>
+      </c>
+      <c r="C217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>115504070</v>
+      </c>
+      <c r="B218" t="s">
+        <v>210</v>
+      </c>
+      <c r="C218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>248566952</v>
+      </c>
+      <c r="B219" t="s">
+        <v>205</v>
+      </c>
+      <c r="C219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>255853840</v>
+      </c>
+      <c r="B220" t="s">
+        <v>207</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>560174339</v>
+      </c>
+      <c r="B221" t="s">
+        <v>211</v>
+      </c>
+      <c r="C221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>563858844</v>
+      </c>
+      <c r="B222" t="s">
+        <v>206</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>561181101</v>
+      </c>
+      <c r="B223" t="s">
+        <v>212</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>342940855</v>
+      </c>
+      <c r="B224" t="s">
+        <v>213</v>
+      </c>
+      <c r="C224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>551619903</v>
+      </c>
+      <c r="B225" t="s">
+        <v>205</v>
+      </c>
+      <c r="C225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>549942445</v>
+      </c>
+      <c r="B226" t="s">
+        <v>207</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>183287826</v>
+      </c>
+      <c r="B227" t="s">
+        <v>205</v>
+      </c>
+      <c r="C227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>538346556</v>
+      </c>
+      <c r="B228" t="s">
+        <v>214</v>
+      </c>
+      <c r="C228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>548348543</v>
+      </c>
+      <c r="B229" t="s">
+        <v>199</v>
+      </c>
+      <c r="C229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>432601689</v>
+      </c>
+      <c r="B230" t="s">
+        <v>215</v>
+      </c>
+      <c r="C230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>170232795</v>
+      </c>
+      <c r="B231" t="s">
+        <v>216</v>
+      </c>
+      <c r="C231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>561173793</v>
+      </c>
+      <c r="B232" t="s">
+        <v>217</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>338974959</v>
+      </c>
+      <c r="B233" t="s">
+        <v>205</v>
+      </c>
+      <c r="C233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>235374293</v>
+      </c>
+      <c r="B234" t="s">
+        <v>207</v>
+      </c>
+      <c r="C234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>474646089</v>
+      </c>
+      <c r="B235" t="s">
+        <v>218</v>
+      </c>
+      <c r="C235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>549952530</v>
+      </c>
+      <c r="B236" t="s">
+        <v>219</v>
+      </c>
+      <c r="C236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>70310064</v>
+      </c>
+      <c r="B237" t="s">
+        <v>199</v>
+      </c>
+      <c r="C237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>73479971</v>
+      </c>
+      <c r="B238" t="s">
+        <v>220</v>
+      </c>
+      <c r="C238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>350442000</v>
+      </c>
+      <c r="B239" t="s">
+        <v>221</v>
+      </c>
+      <c r="C239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>39523060</v>
+      </c>
+      <c r="B240" t="s">
+        <v>220</v>
+      </c>
+      <c r="C240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>18832603</v>
+      </c>
+      <c r="B241" t="s">
+        <v>222</v>
+      </c>
+      <c r="C241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>360738360</v>
+      </c>
+      <c r="B242" t="s">
+        <v>223</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>65776863</v>
+      </c>
+      <c r="B243" t="s">
+        <v>224</v>
+      </c>
+      <c r="C243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>78582759</v>
+      </c>
+      <c r="B244" t="s">
+        <v>225</v>
+      </c>
+      <c r="C244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>186041355</v>
+      </c>
+      <c r="B245" t="s">
+        <v>226</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>317254268</v>
+      </c>
+      <c r="B246" t="s">
+        <v>227</v>
+      </c>
+      <c r="C246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>83513078</v>
+      </c>
+      <c r="B247" t="s">
+        <v>220</v>
+      </c>
+      <c r="C247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>207151592</v>
+      </c>
+      <c r="B248" t="s">
+        <v>228</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>22757036</v>
+      </c>
+      <c r="B249" t="s">
+        <v>229</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>83446717</v>
+      </c>
+      <c r="B250" t="s">
+        <v>230</v>
+      </c>
+      <c r="C250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>177446497</v>
+      </c>
+      <c r="B251" t="s">
+        <v>231</v>
+      </c>
+      <c r="C251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>43182233</v>
+      </c>
+      <c r="B252" t="s">
+        <v>232</v>
+      </c>
+      <c r="C252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>44945013</v>
+      </c>
+      <c r="B253" t="s">
+        <v>223</v>
+      </c>
+      <c r="C253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>32873654</v>
+      </c>
+      <c r="B254" t="s">
+        <v>233</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>285926313</v>
+      </c>
+      <c r="B255" t="s">
+        <v>234</v>
+      </c>
+      <c r="C255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>36714483</v>
+      </c>
+      <c r="B256" t="s">
+        <v>220</v>
+      </c>
+      <c r="C256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>207175454</v>
+      </c>
+      <c r="B257" t="s">
+        <v>235</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>33100524</v>
+      </c>
+      <c r="B258" t="s">
+        <v>220</v>
+      </c>
+      <c r="C258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>125935268</v>
+      </c>
+      <c r="B259" t="s">
+        <v>236</v>
+      </c>
+      <c r="C259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>73346847</v>
+      </c>
+      <c r="B260" t="s">
+        <v>237</v>
+      </c>
+      <c r="C260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>158657869</v>
+      </c>
+      <c r="B261" t="s">
+        <v>220</v>
+      </c>
+      <c r="C261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>13800740</v>
+      </c>
+      <c r="B262" t="s">
+        <v>238</v>
+      </c>
+      <c r="C262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>255025029</v>
+      </c>
+      <c r="B263" t="s">
+        <v>220</v>
+      </c>
+      <c r="C263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>466763207</v>
+      </c>
+      <c r="B264" t="s">
+        <v>220</v>
+      </c>
+      <c r="C264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>289286526</v>
+      </c>
+      <c r="B265" t="s">
+        <v>239</v>
+      </c>
+      <c r="C265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>19742884</v>
+      </c>
+      <c r="B266" t="s">
+        <v>240</v>
+      </c>
+      <c r="C266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>104057888</v>
+      </c>
+      <c r="B267" t="s">
+        <v>241</v>
+      </c>
+      <c r="C267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>78284000</v>
+      </c>
+      <c r="B268" t="s">
+        <v>242</v>
+      </c>
+      <c r="C268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>74433633</v>
+      </c>
+      <c r="B269" t="s">
+        <v>243</v>
+      </c>
+      <c r="C269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>80961303</v>
+      </c>
+      <c r="B270" t="s">
+        <v>244</v>
+      </c>
+      <c r="C270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>248676454</v>
+      </c>
+      <c r="B271" t="s">
+        <v>245</v>
+      </c>
+      <c r="C271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>81863264</v>
+      </c>
+      <c r="B272" t="s">
+        <v>240</v>
+      </c>
+      <c r="C272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>322945774</v>
+      </c>
+      <c r="B273" t="s">
+        <v>246</v>
+      </c>
+      <c r="C273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>143048789</v>
+      </c>
+      <c r="B274" t="s">
+        <v>220</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>406438362</v>
+      </c>
+      <c r="B275" t="s">
+        <v>247</v>
+      </c>
+      <c r="C275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>54984522</v>
+      </c>
+      <c r="B276" t="s">
+        <v>248</v>
+      </c>
+      <c r="C276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>78537962</v>
+      </c>
+      <c r="B277" t="s">
+        <v>249</v>
+      </c>
+      <c r="C277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>156584991</v>
+      </c>
+      <c r="B278" t="s">
+        <v>220</v>
+      </c>
+      <c r="C278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>406438362</v>
+      </c>
+      <c r="B279" t="s">
+        <v>247</v>
+      </c>
+      <c r="C279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>78537962</v>
+      </c>
+      <c r="B280" t="s">
+        <v>249</v>
+      </c>
+      <c r="C280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>156584991</v>
+      </c>
+      <c r="B281" t="s">
+        <v>220</v>
+      </c>
+      <c r="C281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>54984522</v>
+      </c>
+      <c r="B282" t="s">
+        <v>248</v>
+      </c>
+      <c r="C282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>269456838</v>
+      </c>
+      <c r="B283" t="s">
+        <v>250</v>
+      </c>
+      <c r="C283">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>202006685</v>
+      </c>
+      <c r="B284" t="s">
+        <v>251</v>
+      </c>
+      <c r="C284">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>281647044</v>
+      </c>
+      <c r="B285" t="s">
+        <v>252</v>
+      </c>
+      <c r="C285">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>281647044</v>
+      </c>
+      <c r="B286" t="s">
+        <v>252</v>
+      </c>
+      <c r="C286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>18056829</v>
+      </c>
+      <c r="B287" t="s">
+        <v>232</v>
+      </c>
+      <c r="C287">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/set.xlsx
+++ b/set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hn_01\OneDrive\Desktop\django-assignguru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D721F7-C6A8-4A72-BD8C-F0C1BBDCB2AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A48B53-3C77-4FA2-A6FC-606049782A5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="316">
   <si>
     <t>id</t>
   </si>
@@ -131,6 +131,855 @@
   </si>
   <si>
     <t>Economics 2</t>
+  </si>
+  <si>
+    <t>Principles of Marketing, 17e (Kotler/Armstrong)</t>
+  </si>
+  <si>
+    <t>Macroeconomics Final</t>
+  </si>
+  <si>
+    <t>ECO 2315</t>
+  </si>
+  <si>
+    <t>Vacaflores Macroeconomics Final</t>
+  </si>
+  <si>
+    <t>Accounting Chapter 1</t>
+  </si>
+  <si>
+    <t>Accounting &amp; Finance</t>
+  </si>
+  <si>
+    <t>Marketing Chapter 5</t>
+  </si>
+  <si>
+    <t>Chapter 1 - Introduction to Accounting</t>
+  </si>
+  <si>
+    <t>Math Facts Multiplication</t>
+  </si>
+  <si>
+    <t>INTRO TO FINANCIAL ACCOUNTING</t>
+  </si>
+  <si>
+    <t>Different food items(in Spanish)</t>
+  </si>
+  <si>
+    <t>Dance 101 Arts and Humanities</t>
+  </si>
+  <si>
+    <t>Accounting - Chapter 1</t>
+  </si>
+  <si>
+    <t>Spanish Voc. #14 - Places</t>
+  </si>
+  <si>
+    <t>Principles of Financial Accounting Chapters 1-4 Vocabulary</t>
+  </si>
+  <si>
+    <t>General Finance Terms</t>
+  </si>
+  <si>
+    <t>Spanish Adjectives</t>
+  </si>
+  <si>
+    <t>Marketing Ch 1</t>
+  </si>
+  <si>
+    <t>Spanish Lesson 3 Vocabulary</t>
+  </si>
+  <si>
+    <t>Spanish 112 - Body Parts</t>
+  </si>
+  <si>
+    <t>Final Review Telling Time (chapter 1)</t>
+  </si>
+  <si>
+    <t>Accounting chapter 1, 2, 3</t>
+  </si>
+  <si>
+    <t>Personal Finance Chapter 2</t>
+  </si>
+  <si>
+    <t>Marketing Chapter 6</t>
+  </si>
+  <si>
+    <t>Accounting chapter 1-8</t>
+  </si>
+  <si>
+    <t>Personal Finance Final Exam</t>
+  </si>
+  <si>
+    <t>Finance Exam 1</t>
+  </si>
+  <si>
+    <t>Personal finance final exam`</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Financial Accounting Ch. 1-3</t>
+  </si>
+  <si>
+    <t>personal finance</t>
+  </si>
+  <si>
+    <t>Marketing Chapter 1</t>
+  </si>
+  <si>
+    <t>Spanish - Sports and Games</t>
+  </si>
+  <si>
+    <t>Business Studies - Finance</t>
+  </si>
+  <si>
+    <t>All Spanish Verb Tenses</t>
+  </si>
+  <si>
+    <t>Personal Finance final</t>
+  </si>
+  <si>
+    <t>Financial Accounting</t>
+  </si>
+  <si>
+    <t>Spanish Tenses</t>
+  </si>
+  <si>
+    <t>Financial Accounting Flashcards</t>
+  </si>
+  <si>
+    <t>Finance Test Questions</t>
+  </si>
+  <si>
+    <t>Finance Test #1</t>
+  </si>
+  <si>
+    <t>Accounting Terms Chapter 1</t>
+  </si>
+  <si>
+    <t>Spanish in Context (Animals 1-25)</t>
+  </si>
+  <si>
+    <t>Finance: Exam 1</t>
+  </si>
+  <si>
+    <t>Marketing 2 quiz</t>
+  </si>
+  <si>
+    <t>Marketing Test</t>
+  </si>
+  <si>
+    <t>Business Finance Chapter 1 Definition</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Spanish Final Oral</t>
+  </si>
+  <si>
+    <t>Personal &amp; Family Finance Final</t>
+  </si>
+  <si>
+    <t>Personal Finance</t>
+  </si>
+  <si>
+    <t>Marketing Finial</t>
+  </si>
+  <si>
+    <t>Chemistry Common Polyatomic Ions</t>
+  </si>
+  <si>
+    <t>Marketing 1</t>
+  </si>
+  <si>
+    <t>FBLA Personal Finance Study Guide</t>
+  </si>
+  <si>
+    <t>Principles of Marketing</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Marketing test 3</t>
+  </si>
+  <si>
+    <t>Accounting Chapter 1-9</t>
+  </si>
+  <si>
+    <t>Personal Finance Final</t>
+  </si>
+  <si>
+    <t>20 Basic Accounting Terms</t>
+  </si>
+  <si>
+    <t>Chapter 1 Basic Accounting</t>
+  </si>
+  <si>
+    <t>Finance Quiz</t>
+  </si>
+  <si>
+    <t>Principles of Finance Test 1 Chapters 1-4</t>
+  </si>
+  <si>
+    <t>Accounting 1</t>
+  </si>
+  <si>
+    <t>Marketing ch 9</t>
+  </si>
+  <si>
+    <t>Personal Finance Chapter 3 SG</t>
+  </si>
+  <si>
+    <t>La formaciÃ³n de preguntas y las palabras interrogativas</t>
+  </si>
+  <si>
+    <t>Marketing Final #15</t>
+  </si>
+  <si>
+    <t>Spanish - How Often? - How Long? - 12-B</t>
+  </si>
+  <si>
+    <t>Chapter 12 Personal Finance</t>
+  </si>
+  <si>
+    <t>Chapter 1- Introduction to Accounting</t>
+  </si>
+  <si>
+    <t>Finance 306 - Exam 1</t>
+  </si>
+  <si>
+    <t>Accounting Terms</t>
+  </si>
+  <si>
+    <t>Finance Exam 1 (Chapters 1-4)</t>
+  </si>
+  <si>
+    <t>DECA Finance Terms</t>
+  </si>
+  <si>
+    <t>Accounting Chapter 1-4 (Financial Accounting)</t>
+  </si>
+  <si>
+    <t>Chapter 1 marketing</t>
+  </si>
+  <si>
+    <t>personal finance ch. 5</t>
+  </si>
+  <si>
+    <t>Types of Financial Markets</t>
+  </si>
+  <si>
+    <t>Personal family finance final</t>
+  </si>
+  <si>
+    <t>Marketing Chapter 11</t>
+  </si>
+  <si>
+    <t>Personal Finance Unit 4 Vocab</t>
+  </si>
+  <si>
+    <t>personal finance chapter 12</t>
+  </si>
+  <si>
+    <t>personal finance chapter 13</t>
+  </si>
+  <si>
+    <t>personal finance chapter 17</t>
+  </si>
+  <si>
+    <t>La Ropa - Clothing Austin Rice</t>
+  </si>
+  <si>
+    <t>personal finance final exam</t>
+  </si>
+  <si>
+    <t>Marketing unit 4</t>
+  </si>
+  <si>
+    <t>Accounting Chapters 1-13</t>
+  </si>
+  <si>
+    <t>Finance Chapter 1</t>
+  </si>
+  <si>
+    <t>Marketing stuff</t>
+  </si>
+  <si>
+    <t>Financial Accounting: Types of Accounts</t>
+  </si>
+  <si>
+    <t>Marketing-Ch 1</t>
+  </si>
+  <si>
+    <t>Accounting Chapter 1-3</t>
+  </si>
+  <si>
+    <t>Finance Chapter 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Accounting definition</t>
+  </si>
+  <si>
+    <t>French II - Classroom materials</t>
+  </si>
+  <si>
+    <t>FINANCE TEST 2</t>
+  </si>
+  <si>
+    <t>Chapter 4 Marketing</t>
+  </si>
+  <si>
+    <t>Spanish interview answers in Spanish and English</t>
+  </si>
+  <si>
+    <t>Personal Finance- Chapter 7 Review</t>
+  </si>
+  <si>
+    <t>marketing ch. 15</t>
+  </si>
+  <si>
+    <t>Professions</t>
+  </si>
+  <si>
+    <t>Spanish 1 Lesson 1 Vocabulary List</t>
+  </si>
+  <si>
+    <t>DECA Performance Indicators</t>
+  </si>
+  <si>
+    <t>Business Finance Chapter 1 "An Overview of Financial Management"</t>
+  </si>
+  <si>
+    <t>Business Finance Chapter 1-6</t>
+  </si>
+  <si>
+    <t>Financial Accounting (Ch 1-4)</t>
+  </si>
+  <si>
+    <t>Spanish, Ch. 5 Vocab: Castillo</t>
+  </si>
+  <si>
+    <t>Accounting Exam 1 Ch. 1-4</t>
+  </si>
+  <si>
+    <t>Personal Finance-Vb</t>
+  </si>
+  <si>
+    <t>PowerPoint One Test</t>
+  </si>
+  <si>
+    <t>Financial Accounting True and False</t>
+  </si>
+  <si>
+    <t>Prepositions in Spanish</t>
+  </si>
+  <si>
+    <t>Marketing / 1</t>
+  </si>
+  <si>
+    <t>Lec2.4 - Numbers 1- 100</t>
+  </si>
+  <si>
+    <t>Spanish Days and Months</t>
+  </si>
+  <si>
+    <t>Basic Math</t>
+  </si>
+  <si>
+    <t>Finance Chapter 1,2,3</t>
+  </si>
+  <si>
+    <t>accounting ch3</t>
+  </si>
+  <si>
+    <t>Spanish - Chap 5 #2 Household Appliances and Furnitures</t>
+  </si>
+  <si>
+    <t>DECA Finance Vocabulary Review</t>
+  </si>
+  <si>
+    <t>English final study guide QUESTIONS</t>
+  </si>
+  <si>
+    <t>Basic Geography of North America</t>
+  </si>
+  <si>
+    <t>Personal finance</t>
+  </si>
+  <si>
+    <t>Business Finance (EXAM 1--Ch. 1-5)</t>
+  </si>
+  <si>
+    <t>DECA Finance</t>
+  </si>
+  <si>
+    <t>Czech verbs</t>
+  </si>
+  <si>
+    <t>Personal Finance Ch 4</t>
+  </si>
+  <si>
+    <t>Chapter 1: The Financial Statements</t>
+  </si>
+  <si>
+    <t>Marketing Chapter 8</t>
+  </si>
+  <si>
+    <t>Organic Chemistry</t>
+  </si>
+  <si>
+    <t>Marketing Ch. 19</t>
+  </si>
+  <si>
+    <t>personal finance exam (ch 5-7)</t>
+  </si>
+  <si>
+    <t>Art History Exam 3</t>
+  </si>
+  <si>
+    <t>personal finance chapter 18</t>
+  </si>
+  <si>
+    <t>Chapter 19 personal finance</t>
+  </si>
+  <si>
+    <t>SPANISH 102 FINAL EXAM STUDY GUIDE</t>
+  </si>
+  <si>
+    <t>Los Colores - Colors in Spanish</t>
+  </si>
+  <si>
+    <t>Architectural Styles</t>
+  </si>
+  <si>
+    <t>100 Most Common Regular Verbs in Spanish</t>
+  </si>
+  <si>
+    <t>Avancemos 1 Leccion Preliminar</t>
+  </si>
+  <si>
+    <t>Las partes del cuerpo</t>
+  </si>
+  <si>
+    <t>unit 2 marketing</t>
+  </si>
+  <si>
+    <t>Public Speaking Test 1 Study Guide</t>
+  </si>
+  <si>
+    <t>accounting test 1</t>
+  </si>
+  <si>
+    <t>Marketing Management 3</t>
+  </si>
+  <si>
+    <t>mordern art history</t>
+  </si>
+  <si>
+    <t>What is accounting!!!?</t>
+  </si>
+  <si>
+    <t>DECA finance</t>
+  </si>
+  <si>
+    <t>Realidades 1: 3A/ 3B</t>
+  </si>
+  <si>
+    <t>Music Theory</t>
+  </si>
+  <si>
+    <t>Marketing Midterm</t>
+  </si>
+  <si>
+    <t>Biological Psychology</t>
+  </si>
+  <si>
+    <t>Tennis Boundaries, Rules, and Hits</t>
+  </si>
+  <si>
+    <t>Spanish Irregulars Past tense Hacer</t>
+  </si>
+  <si>
+    <t>Santillana EspaÃ±ol 1 Unidad 1 (p.80)</t>
+  </si>
+  <si>
+    <t>MARKETING CH. 19</t>
+  </si>
+  <si>
+    <t>Marketing Test 3</t>
+  </si>
+  <si>
+    <t>Personal Finance Exam 4</t>
+  </si>
+  <si>
+    <t>Service Marketing</t>
+  </si>
+  <si>
+    <t>Lesson 5 Honduras_ la ropa y los accesorios</t>
+  </si>
+  <si>
+    <t>Digestive System | Thomas Science, Period 4</t>
+  </si>
+  <si>
+    <t>The Solar System</t>
+  </si>
+  <si>
+    <t>Multiplying Fractions</t>
+  </si>
+  <si>
+    <t>Genetics: Genotype vs. Phenotype; Homozygous vs. Heterozygous; Probability (ratios and percentages; Punnett Squares</t>
+  </si>
+  <si>
+    <t>Personal Finance Ch. 3</t>
+  </si>
+  <si>
+    <t>Angles</t>
+  </si>
+  <si>
+    <t>El transporte</t>
+  </si>
+  <si>
+    <t>Science - Food Webs/Chains, And Parts Of The Food Web/Chain</t>
+  </si>
+  <si>
+    <t>PERSONAL FINANCE REVIEW</t>
+  </si>
+  <si>
+    <t>Marketing Final</t>
+  </si>
+  <si>
+    <t>Personal Finance Chapter 9 Test</t>
+  </si>
+  <si>
+    <t>AP US History - US Presidents</t>
+  </si>
+  <si>
+    <t>Personal Finance Chapter 1</t>
+  </si>
+  <si>
+    <t>EES:1030 Smartwork HW; tectonic settings of igneous activity</t>
+  </si>
+  <si>
+    <t>El Noticiero</t>
+  </si>
+  <si>
+    <t>MARKETING FINAL</t>
+  </si>
+  <si>
+    <t>Marketing Homework</t>
+  </si>
+  <si>
+    <t>General Vocabulary 1 (Vocab booklet p1)</t>
+  </si>
+  <si>
+    <t>Accounting IGCSE</t>
+  </si>
+  <si>
+    <t>Personal Finance Exam 1</t>
+  </si>
+  <si>
+    <t>Marketing Chapter 4</t>
+  </si>
+  <si>
+    <t>Psych Marriage and Family T1</t>
+  </si>
+  <si>
+    <t>Dance vocabulary review</t>
+  </si>
+  <si>
+    <t>Stat 1450 Exam 1</t>
+  </si>
+  <si>
+    <t>Personal Finance Quiz 5, Personal Finance Quiz 4, Personal Finance Quiz 3, Personal Finance Ch 1 Quiz</t>
+  </si>
+  <si>
+    <t>3 Muscles of the Posterior forearm -- Superficial group</t>
+  </si>
+  <si>
+    <t>ACCT 3110 ENTRANCE EXAM</t>
+  </si>
+  <si>
+    <t>Chapter 3 Review</t>
+  </si>
+  <si>
+    <t>ITE 115</t>
+  </si>
+  <si>
+    <t>DECA</t>
+  </si>
+  <si>
+    <t>Irritating little words!</t>
+  </si>
+  <si>
+    <t>Calculus 1</t>
+  </si>
+  <si>
+    <t>TAPS Art: MIDTERM</t>
+  </si>
+  <si>
+    <t>Personal Finance REVIEW</t>
+  </si>
+  <si>
+    <t>GRE Math Basics</t>
+  </si>
+  <si>
+    <t>L3 Unit 4 Social Issues</t>
+  </si>
+  <si>
+    <t>Accounting Final Exam</t>
+  </si>
+  <si>
+    <t>Vocabulario Capitulo 9 (Spanish 4 P358)</t>
+  </si>
+  <si>
+    <t>Los Deportes</t>
+  </si>
+  <si>
+    <t>The Executive Branch</t>
+  </si>
+  <si>
+    <t>COLORES</t>
+  </si>
+  <si>
+    <t>Chapter 1 Introduction to Personal Finance</t>
+  </si>
+  <si>
+    <t>BIM2 semester test</t>
+  </si>
+  <si>
+    <t>anthropology 1 final</t>
+  </si>
+  <si>
+    <t>Environmental Science Semester 2-- Part A</t>
+  </si>
+  <si>
+    <t>Chapter 2 - Personal Finance</t>
+  </si>
+  <si>
+    <t>Spanish Oral Final Questions and Answers</t>
+  </si>
+  <si>
+    <t>DSST Principles of Statistics</t>
+  </si>
+  <si>
+    <t>3B Para mantener la salud</t>
+  </si>
+  <si>
+    <t>Criminal Procedure Part 2</t>
+  </si>
+  <si>
+    <t>Diagrama de NÃºmeros 0 al 50</t>
+  </si>
+  <si>
+    <t>Marketing final</t>
+  </si>
+  <si>
+    <t>2012 DECA Finance Cluster Exam</t>
+  </si>
+  <si>
+    <t>Physiology-Cardiology 1</t>
+  </si>
+  <si>
+    <t>Football Test</t>
+  </si>
+  <si>
+    <t>Number and Algebra</t>
+  </si>
+  <si>
+    <t>Abnormal Psychology Exam #2 on Oct 23rd 2019</t>
+  </si>
+  <si>
+    <t>Spanish 6.1 - Escoger: Choose the word that doesn't belong</t>
+  </si>
+  <si>
+    <t>Business Test</t>
+  </si>
+  <si>
+    <t>A&amp;P final</t>
+  </si>
+  <si>
+    <t>Spanish Oral Exam</t>
+  </si>
+  <si>
+    <t>PHYSICS</t>
+  </si>
+  <si>
+    <t>Unfair Christmas Trivia Game</t>
+  </si>
+  <si>
+    <t>Fundamentals of Geography (8th)</t>
+  </si>
+  <si>
+    <t>AP Human Geography Unit 4: Political Geography Study Questions</t>
+  </si>
+  <si>
+    <t>Special Right Triangles and Trigonometry</t>
+  </si>
+  <si>
+    <t>DECA: Finance Terms</t>
+  </si>
+  <si>
+    <t>MATH-2305 Ch 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>Decision Trees</t>
+  </si>
+  <si>
+    <t>Geology: Topics 1</t>
+  </si>
+  <si>
+    <t>Global Business Chapter 1</t>
+  </si>
+  <si>
+    <t>Module B-Linear Programming</t>
+  </si>
+  <si>
+    <t>Logic Exam 1</t>
+  </si>
+  <si>
+    <t>Module 54</t>
+  </si>
+  <si>
+    <t>LEC 1: INTRO TO MACHINE ORGANIZATION</t>
+  </si>
+  <si>
+    <t>TestOut Chapter 11</t>
+  </si>
+  <si>
+    <t>Geometry Vocabulary</t>
+  </si>
+  <si>
+    <t>Topic 2</t>
+  </si>
+  <si>
+    <t>RN Fundamentals online practice 2016 A</t>
+  </si>
+  <si>
+    <t>Expression Vocabulary 2</t>
+  </si>
+  <si>
+    <t>Ser/Estar/DOCTOR/PLACE</t>
+  </si>
+  <si>
+    <t>Conjunctions</t>
+  </si>
+  <si>
+    <t>Present Perfect vs Present Perfect Continuous Tense</t>
+  </si>
+  <si>
+    <t>theatre appreciation: chapter 7</t>
+  </si>
+  <si>
+    <t>Coronavirus in Black America</t>
+  </si>
+  <si>
+    <t>American Capitalism Is Brutal. You Can Trace That to the Plantation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planet Money: Patent Racism </t>
+  </si>
+  <si>
+    <t>A/V Tech &amp; Film 1 - Unit 2</t>
+  </si>
+  <si>
+    <t>L5.1 Estar with Conditions and Emotions</t>
+  </si>
+  <si>
+    <t>A&amp;P Lab Quiz 2</t>
+  </si>
+  <si>
+    <t>Chapter 1 - Managerial Accounting and Cost Concepts</t>
+  </si>
+  <si>
+    <t>Finance Vocab DECA</t>
+  </si>
+  <si>
+    <t>College board apush unit 4</t>
+  </si>
+  <si>
+    <t>2.4 Technology At Home (vocabulary)</t>
+  </si>
+  <si>
+    <t>Reading Periodic Table</t>
+  </si>
+  <si>
+    <t>3.1 Social Networking (tener expressions)</t>
+  </si>
+  <si>
+    <t>Delegation</t>
+  </si>
+  <si>
+    <t>Las palabras conectoras</t>
+  </si>
+  <si>
+    <t>AMERICAN REVOLUTION</t>
+  </si>
+  <si>
+    <t>Biology 1: Cell Structure</t>
+  </si>
+  <si>
+    <t>Medical Terminology Quizzes 1-7</t>
+  </si>
+  <si>
+    <t>Bus Law Quiz Chapter 4</t>
+  </si>
+  <si>
+    <t>AP Gov Practice Questions 33-34</t>
+  </si>
+  <si>
+    <t>Meat and Poultry Test Review</t>
+  </si>
+  <si>
+    <t>Cell Division (MITOSIS/MEIOSIS)</t>
+  </si>
+  <si>
+    <t>The Nature of History</t>
+  </si>
+  <si>
+    <t>Water, Weather, Climate, Atmosphere</t>
+  </si>
+  <si>
+    <t>DECA Finance Cluster Exam</t>
+  </si>
+  <si>
+    <t>Deca Finance</t>
+  </si>
+  <si>
+    <t>Los sentimientos</t>
+  </si>
+  <si>
+    <t>DECA Principles of Finance</t>
+  </si>
+  <si>
+    <t>E3 Vocabulario C 5</t>
+  </si>
+  <si>
+    <t>Assignment #b-Animals &amp; Adjectives</t>
+  </si>
+  <si>
+    <t>Deca Finance Cluster Exam</t>
+  </si>
+  <si>
+    <t>12 Principles of Animation</t>
+  </si>
+  <si>
+    <t>DECA Finance Business Administration Core Exam (Practice)</t>
+  </si>
+  <si>
+    <t>DECA - Principles of Finance</t>
+  </si>
+  <si>
+    <t>DECA Finance Cluster Exam Terms</t>
+  </si>
+  <si>
+    <t>Unidad 4 - preposiciones de lugar/</t>
+  </si>
+  <si>
+    <t>Autentico 1 - 2A</t>
   </si>
 </sst>
 </file>
@@ -971,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2:C368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,21 +1846,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>140228978</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>13084704</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1019,10 +1868,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>267541947</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -1030,10 +1879,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1759709</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1041,21 +1890,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>71044707</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>94906392</v>
+        <v>1759709</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1063,65 +1912,65 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>17442344</v>
+        <v>2187577</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>33341418</v>
+        <v>2393484</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12856347</v>
+        <v>3030905</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>96554476</v>
+        <v>3376320</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>45844469</v>
+        <v>4296306</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>57126043</v>
+        <v>5135541</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -1129,18 +1978,18 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>141403299</v>
+        <v>5815271</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13414159</v>
+        <v>5918229</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1151,32 +2000,32 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>23494797</v>
+        <v>6298437</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>111508964</v>
+        <v>6467145</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>128537213</v>
+        <v>7777133</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -1184,98 +2033,98 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>62825715</v>
+        <v>7990956</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19015910</v>
+        <v>8078283</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>318680818</v>
+        <v>8755141</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>68545348</v>
+        <v>9726592</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>148123802</v>
+        <v>9932282</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>14683212</v>
+        <v>10550639</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>361930787</v>
+        <v>10662416</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>7777133</v>
+        <v>12578658</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>24827480</v>
+        <v>12856347</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1283,10 +2132,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>5135541</v>
+        <v>13084704</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -1294,10 +2143,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>18474836</v>
+        <v>13414159</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -1305,43 +2154,43 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>175700031</v>
+        <v>13447303</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>94997998</v>
+        <v>13800740</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>128167837</v>
+        <v>14368406</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>213723253</v>
+        <v>14683212</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -1349,10 +2198,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>162028541</v>
+        <v>17442344</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -1360,32 +2209,32 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>334319492</v>
+        <v>17857385</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>253110061</v>
+        <v>18056829</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>45296037</v>
+        <v>18474836</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1393,32 +2242,32 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>418879575</v>
+        <v>18728957</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>398107130</v>
+        <v>18832603</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>47203801</v>
+        <v>19015910</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1426,46 +2275,3610 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>5918229</v>
+        <v>19350985</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>289104749</v>
+        <v>19471306</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>28390807</v>
+        <v>19742884</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>20474097</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>21527774</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>21543843</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>22093828</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>22757036</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>23494797</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>23529908</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>24162477</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>24697880</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>24827480</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>24992628</v>
+      </c>
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>26311865</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>26461825</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>27085387</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>27659726</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>28390807</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>29381741</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>29491391</v>
+      </c>
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>30181272</v>
+      </c>
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>32029856</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>32738793</v>
+      </c>
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>32873654</v>
+      </c>
+      <c r="B65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>33100524</v>
+      </c>
+      <c r="B66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>33297295</v>
+      </c>
+      <c r="B67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>33341418</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>35075366</v>
+      </c>
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>35577315</v>
+      </c>
+      <c r="B70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>36714483</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>36978136</v>
+      </c>
+      <c r="B72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>37595408</v>
+      </c>
+      <c r="B73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>39183960</v>
+      </c>
+      <c r="B74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>39523060</v>
+      </c>
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>39539770</v>
+      </c>
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>41447789</v>
+      </c>
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>43182233</v>
+      </c>
+      <c r="B78" t="s">
+        <v>58</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>44945013</v>
+      </c>
+      <c r="B79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>45296037</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>45686228</v>
+      </c>
+      <c r="B81" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>45844469</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>47203801</v>
+      </c>
+      <c r="B83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>47507495</v>
+      </c>
+      <c r="B84" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>49214197</v>
+      </c>
+      <c r="B85" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>49458647</v>
+      </c>
+      <c r="B86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>50138111</v>
+      </c>
+      <c r="B87" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>52647022</v>
+      </c>
+      <c r="B88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>53789942</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B89" t="s">
         <v>32</v>
       </c>
-      <c r="C44">
+      <c r="C89">
         <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>54984522</v>
+      </c>
+      <c r="B90" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>56042168</v>
+      </c>
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>57126043</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>58686069</v>
+      </c>
+      <c r="B93" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>60802166</v>
+      </c>
+      <c r="B94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>61730463</v>
+      </c>
+      <c r="B95" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>62327187</v>
+      </c>
+      <c r="B96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>62825715</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>65776863</v>
+      </c>
+      <c r="B98" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>66067421</v>
+      </c>
+      <c r="B99" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>67756023</v>
+      </c>
+      <c r="B100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>68320810</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>68545348</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>69547559</v>
+      </c>
+      <c r="B103" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>70310064</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>71044707</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>71581792</v>
+      </c>
+      <c r="B106" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>71587167</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>71587492</v>
+      </c>
+      <c r="B108" t="s">
+        <v>89</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>72278101</v>
+      </c>
+      <c r="B109" t="s">
+        <v>80</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>73346847</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>73479971</v>
+      </c>
+      <c r="B111" t="s">
+        <v>83</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>73662333</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>74433633</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>75287432</v>
+      </c>
+      <c r="B114" t="s">
+        <v>56</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>78184807</v>
+      </c>
+      <c r="B115" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>78284000</v>
+      </c>
+      <c r="B116" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>78537962</v>
+      </c>
+      <c r="B117" t="s">
+        <v>116</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>78582759</v>
+      </c>
+      <c r="B118" t="s">
+        <v>117</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>79798825</v>
+      </c>
+      <c r="B119" t="s">
+        <v>39</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>80961303</v>
+      </c>
+      <c r="B120" t="s">
+        <v>118</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>81741401</v>
+      </c>
+      <c r="B121" t="s">
+        <v>64</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>81863264</v>
+      </c>
+      <c r="B122" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>82002319</v>
+      </c>
+      <c r="B123" t="s">
+        <v>119</v>
+      </c>
+      <c r="C123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>83446717</v>
+      </c>
+      <c r="B124" t="s">
+        <v>120</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>83513078</v>
+      </c>
+      <c r="B125" t="s">
+        <v>83</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>84505126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>121</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>87927595</v>
+      </c>
+      <c r="B127" t="s">
+        <v>122</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>89380845</v>
+      </c>
+      <c r="B128" t="s">
+        <v>123</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>89644056</v>
+      </c>
+      <c r="B129" t="s">
+        <v>124</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>90684810</v>
+      </c>
+      <c r="B130" t="s">
+        <v>125</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>90992303</v>
+      </c>
+      <c r="B131" t="s">
+        <v>126</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>91966367</v>
+      </c>
+      <c r="B132" t="s">
+        <v>127</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>93581894</v>
+      </c>
+      <c r="B133" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>93615968</v>
+      </c>
+      <c r="B134" t="s">
+        <v>129</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>94906392</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>94997998</v>
+      </c>
+      <c r="B136" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>95384425</v>
+      </c>
+      <c r="B137" t="s">
+        <v>130</v>
+      </c>
+      <c r="C137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>96554476</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>97665376</v>
+      </c>
+      <c r="B139" t="s">
+        <v>131</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>98091886</v>
+      </c>
+      <c r="B140" t="s">
+        <v>132</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>102652276</v>
+      </c>
+      <c r="B141" t="s">
+        <v>133</v>
+      </c>
+      <c r="C141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>104057888</v>
+      </c>
+      <c r="B142" t="s">
+        <v>134</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>109871784</v>
+      </c>
+      <c r="B143" t="s">
+        <v>37</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>110646001</v>
+      </c>
+      <c r="B144" t="s">
+        <v>135</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>111209119</v>
+      </c>
+      <c r="B145" t="s">
+        <v>136</v>
+      </c>
+      <c r="C145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>111508964</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>112615236</v>
+      </c>
+      <c r="B147" t="s">
+        <v>137</v>
+      </c>
+      <c r="C147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>115504070</v>
+      </c>
+      <c r="B148" t="s">
+        <v>138</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>116278018</v>
+      </c>
+      <c r="B149" t="s">
+        <v>139</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>116650163</v>
+      </c>
+      <c r="B150" t="s">
+        <v>140</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>119892997</v>
+      </c>
+      <c r="B151" t="s">
+        <v>141</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>119893245</v>
+      </c>
+      <c r="B152" t="s">
+        <v>142</v>
+      </c>
+      <c r="C152">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>122792239</v>
+      </c>
+      <c r="B153" t="s">
+        <v>143</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>122832988</v>
+      </c>
+      <c r="B154" t="s">
+        <v>80</v>
+      </c>
+      <c r="C154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>125935268</v>
+      </c>
+      <c r="B155" t="s">
+        <v>144</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>128167837</v>
+      </c>
+      <c r="B156" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>128537213</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>128846446</v>
+      </c>
+      <c r="B158" t="s">
+        <v>145</v>
+      </c>
+      <c r="C158">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>136657823</v>
+      </c>
+      <c r="B159" t="s">
+        <v>146</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>138278011</v>
+      </c>
+      <c r="B160" t="s">
+        <v>147</v>
+      </c>
+      <c r="C160">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>140228978</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>141403299</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>142782854</v>
+      </c>
+      <c r="B163" t="s">
+        <v>148</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>142796836</v>
+      </c>
+      <c r="B164" t="s">
+        <v>149</v>
+      </c>
+      <c r="C164">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>143048789</v>
+      </c>
+      <c r="B165" t="s">
+        <v>83</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>146692648</v>
+      </c>
+      <c r="B166" t="s">
+        <v>150</v>
+      </c>
+      <c r="C166">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>146942903</v>
+      </c>
+      <c r="B167" t="s">
+        <v>151</v>
+      </c>
+      <c r="C167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>148123802</v>
+      </c>
+      <c r="B168" t="s">
+        <v>16</v>
+      </c>
+      <c r="C168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>148588749</v>
+      </c>
+      <c r="B169" t="s">
+        <v>152</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>150424959</v>
+      </c>
+      <c r="B170" t="s">
+        <v>153</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>156584991</v>
+      </c>
+      <c r="B171" t="s">
+        <v>83</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>158657869</v>
+      </c>
+      <c r="B172" t="s">
+        <v>83</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>162028541</v>
+      </c>
+      <c r="B173" t="s">
+        <v>25</v>
+      </c>
+      <c r="C173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>166839589</v>
+      </c>
+      <c r="B174" t="s">
+        <v>154</v>
+      </c>
+      <c r="C174">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>170232795</v>
+      </c>
+      <c r="B175" t="s">
+        <v>155</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>173449100</v>
+      </c>
+      <c r="B176" t="s">
+        <v>156</v>
+      </c>
+      <c r="C176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>174630715</v>
+      </c>
+      <c r="B177" t="s">
+        <v>157</v>
+      </c>
+      <c r="C177">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>175700031</v>
+      </c>
+      <c r="B178" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>177446497</v>
+      </c>
+      <c r="B179" t="s">
+        <v>158</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>182704342</v>
+      </c>
+      <c r="B180" t="s">
+        <v>159</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>183287826</v>
+      </c>
+      <c r="B181" t="s">
+        <v>160</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>184831830</v>
+      </c>
+      <c r="B182" t="s">
+        <v>161</v>
+      </c>
+      <c r="C182">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>186041355</v>
+      </c>
+      <c r="B183" t="s">
+        <v>162</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>188046876</v>
+      </c>
+      <c r="B184" t="s">
+        <v>163</v>
+      </c>
+      <c r="C184">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>192722869</v>
+      </c>
+      <c r="B185" t="s">
+        <v>164</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>193106418</v>
+      </c>
+      <c r="B186" t="s">
+        <v>165</v>
+      </c>
+      <c r="C186">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>193530843</v>
+      </c>
+      <c r="B187" t="s">
+        <v>88</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>197955270</v>
+      </c>
+      <c r="B188" t="s">
+        <v>166</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>202006685</v>
+      </c>
+      <c r="B189" t="s">
+        <v>167</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>203236239</v>
+      </c>
+      <c r="B190" t="s">
+        <v>168</v>
+      </c>
+      <c r="C190">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>207151592</v>
+      </c>
+      <c r="B191" t="s">
+        <v>169</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>207175454</v>
+      </c>
+      <c r="B192" t="s">
+        <v>170</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>213723253</v>
+      </c>
+      <c r="B193" t="s">
+        <v>24</v>
+      </c>
+      <c r="C193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>216744125</v>
+      </c>
+      <c r="B194" t="s">
+        <v>171</v>
+      </c>
+      <c r="C194">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>218504737</v>
+      </c>
+      <c r="B195" t="s">
+        <v>172</v>
+      </c>
+      <c r="C195">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>219561517</v>
+      </c>
+      <c r="B196" t="s">
+        <v>173</v>
+      </c>
+      <c r="C196">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>221534830</v>
+      </c>
+      <c r="B197" t="s">
+        <v>174</v>
+      </c>
+      <c r="C197">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>221860772</v>
+      </c>
+      <c r="B198" t="s">
+        <v>175</v>
+      </c>
+      <c r="C198">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>223557505</v>
+      </c>
+      <c r="B199" t="s">
+        <v>176</v>
+      </c>
+      <c r="C199">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>225650959</v>
+      </c>
+      <c r="B200" t="s">
+        <v>177</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>226422699</v>
+      </c>
+      <c r="B201" t="s">
+        <v>160</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>227121319</v>
+      </c>
+      <c r="B202" t="s">
+        <v>178</v>
+      </c>
+      <c r="C202">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>227606609</v>
+      </c>
+      <c r="B203" t="s">
+        <v>179</v>
+      </c>
+      <c r="C203">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>228253597</v>
+      </c>
+      <c r="B204" t="s">
+        <v>164</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>228577095</v>
+      </c>
+      <c r="B205" t="s">
+        <v>180</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>231880009</v>
+      </c>
+      <c r="B206" t="s">
+        <v>181</v>
+      </c>
+      <c r="C206">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>232190079</v>
+      </c>
+      <c r="B207" t="s">
+        <v>56</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>232883799</v>
+      </c>
+      <c r="B208" t="s">
+        <v>182</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>235374293</v>
+      </c>
+      <c r="B209" t="s">
+        <v>183</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>236040600</v>
+      </c>
+      <c r="B210" t="s">
+        <v>184</v>
+      </c>
+      <c r="C210">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>236417948</v>
+      </c>
+      <c r="B211" t="s">
+        <v>185</v>
+      </c>
+      <c r="C211">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>238699053</v>
+      </c>
+      <c r="B212" t="s">
+        <v>186</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>240278214</v>
+      </c>
+      <c r="B213" t="s">
+        <v>187</v>
+      </c>
+      <c r="C213">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>240313685</v>
+      </c>
+      <c r="B214" t="s">
+        <v>188</v>
+      </c>
+      <c r="C214">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>242615759</v>
+      </c>
+      <c r="B215" t="s">
+        <v>189</v>
+      </c>
+      <c r="C215">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>244930053</v>
+      </c>
+      <c r="B216" t="s">
+        <v>190</v>
+      </c>
+      <c r="C216">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>246648410</v>
+      </c>
+      <c r="B217" t="s">
+        <v>191</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>248239149</v>
+      </c>
+      <c r="B218" t="s">
+        <v>192</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>248566952</v>
+      </c>
+      <c r="B219" t="s">
+        <v>160</v>
+      </c>
+      <c r="C219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>248676454</v>
+      </c>
+      <c r="B220" t="s">
+        <v>193</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>250445815</v>
+      </c>
+      <c r="B221" t="s">
+        <v>194</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>250843650</v>
+      </c>
+      <c r="B222" t="s">
+        <v>195</v>
+      </c>
+      <c r="C222">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>253110061</v>
+      </c>
+      <c r="B223" t="s">
+        <v>27</v>
+      </c>
+      <c r="C223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>255025029</v>
+      </c>
+      <c r="B224" t="s">
+        <v>83</v>
+      </c>
+      <c r="C224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>255600821</v>
+      </c>
+      <c r="B225" t="s">
+        <v>196</v>
+      </c>
+      <c r="C225">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>255853840</v>
+      </c>
+      <c r="B226" t="s">
+        <v>183</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>256584529</v>
+      </c>
+      <c r="B227" t="s">
+        <v>197</v>
+      </c>
+      <c r="C227">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>260384175</v>
+      </c>
+      <c r="B228" t="s">
+        <v>198</v>
+      </c>
+      <c r="C228">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>260991222</v>
+      </c>
+      <c r="B229" t="s">
+        <v>199</v>
+      </c>
+      <c r="C229">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>267541947</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>269456838</v>
+      </c>
+      <c r="B231" t="s">
+        <v>200</v>
+      </c>
+      <c r="C231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>270018933</v>
+      </c>
+      <c r="B232" t="s">
+        <v>61</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>274798873</v>
+      </c>
+      <c r="B233" t="s">
+        <v>201</v>
+      </c>
+      <c r="C233">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>281135465</v>
+      </c>
+      <c r="B234" t="s">
+        <v>202</v>
+      </c>
+      <c r="C234">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>281152506</v>
+      </c>
+      <c r="B235" t="s">
+        <v>203</v>
+      </c>
+      <c r="C235">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>281647044</v>
+      </c>
+      <c r="B236" t="s">
+        <v>204</v>
+      </c>
+      <c r="C236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>281852413</v>
+      </c>
+      <c r="B237" t="s">
+        <v>164</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>282257079</v>
+      </c>
+      <c r="B238" t="s">
+        <v>205</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>285926313</v>
+      </c>
+      <c r="B239" t="s">
+        <v>206</v>
+      </c>
+      <c r="C239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>289104749</v>
+      </c>
+      <c r="B240" t="s">
+        <v>31</v>
+      </c>
+      <c r="C240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>289116939</v>
+      </c>
+      <c r="B241" t="s">
+        <v>207</v>
+      </c>
+      <c r="C241">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>289286526</v>
+      </c>
+      <c r="B242" t="s">
+        <v>208</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>293115593</v>
+      </c>
+      <c r="B243" t="s">
+        <v>209</v>
+      </c>
+      <c r="C243">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>296427533</v>
+      </c>
+      <c r="B244" t="s">
+        <v>210</v>
+      </c>
+      <c r="C244">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>307036942</v>
+      </c>
+      <c r="B245" t="s">
+        <v>211</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>309145967</v>
+      </c>
+      <c r="B246" t="s">
+        <v>212</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>314896533</v>
+      </c>
+      <c r="B247" t="s">
+        <v>213</v>
+      </c>
+      <c r="C247">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>315677138</v>
+      </c>
+      <c r="B248" t="s">
+        <v>214</v>
+      </c>
+      <c r="C248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>317254268</v>
+      </c>
+      <c r="B249" t="s">
+        <v>215</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>317966218</v>
+      </c>
+      <c r="B250" t="s">
+        <v>216</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>318680818</v>
+      </c>
+      <c r="B251" t="s">
+        <v>15</v>
+      </c>
+      <c r="C251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>318878400</v>
+      </c>
+      <c r="B252" t="s">
+        <v>217</v>
+      </c>
+      <c r="C252">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>319309519</v>
+      </c>
+      <c r="B253" t="s">
+        <v>218</v>
+      </c>
+      <c r="C253">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>322141245</v>
+      </c>
+      <c r="B254" t="s">
+        <v>219</v>
+      </c>
+      <c r="C254">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>322945774</v>
+      </c>
+      <c r="B255" t="s">
+        <v>220</v>
+      </c>
+      <c r="C255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>323381018</v>
+      </c>
+      <c r="B256" t="s">
+        <v>221</v>
+      </c>
+      <c r="C256">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>325756637</v>
+      </c>
+      <c r="B257" t="s">
+        <v>222</v>
+      </c>
+      <c r="C257">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>329548339</v>
+      </c>
+      <c r="B258" t="s">
+        <v>223</v>
+      </c>
+      <c r="C258">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>334319492</v>
+      </c>
+      <c r="B259" t="s">
+        <v>26</v>
+      </c>
+      <c r="C259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>338974959</v>
+      </c>
+      <c r="B260" t="s">
+        <v>160</v>
+      </c>
+      <c r="C260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>342201909</v>
+      </c>
+      <c r="B261" t="s">
+        <v>224</v>
+      </c>
+      <c r="C261">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>342940855</v>
+      </c>
+      <c r="B262" t="s">
+        <v>225</v>
+      </c>
+      <c r="C262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>343305615</v>
+      </c>
+      <c r="B263" t="s">
+        <v>226</v>
+      </c>
+      <c r="C263">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>345879126</v>
+      </c>
+      <c r="B264" t="s">
+        <v>227</v>
+      </c>
+      <c r="C264">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>349603408</v>
+      </c>
+      <c r="B265" t="s">
+        <v>228</v>
+      </c>
+      <c r="C265">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>350442000</v>
+      </c>
+      <c r="B266" t="s">
+        <v>229</v>
+      </c>
+      <c r="C266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>350741399</v>
+      </c>
+      <c r="B267" t="s">
+        <v>230</v>
+      </c>
+      <c r="C267">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>357132548</v>
+      </c>
+      <c r="B268" t="s">
+        <v>231</v>
+      </c>
+      <c r="C268">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>358265777</v>
+      </c>
+      <c r="B269" t="s">
+        <v>232</v>
+      </c>
+      <c r="C269">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>360738360</v>
+      </c>
+      <c r="B270" t="s">
+        <v>92</v>
+      </c>
+      <c r="C270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>361930787</v>
+      </c>
+      <c r="B271" t="s">
+        <v>18</v>
+      </c>
+      <c r="C271">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>365371725</v>
+      </c>
+      <c r="B272" t="s">
+        <v>233</v>
+      </c>
+      <c r="C272">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>374671853</v>
+      </c>
+      <c r="B273" t="s">
+        <v>234</v>
+      </c>
+      <c r="C273">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>381849037</v>
+      </c>
+      <c r="B274" t="s">
+        <v>235</v>
+      </c>
+      <c r="C274">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>383874542</v>
+      </c>
+      <c r="B275" t="s">
+        <v>236</v>
+      </c>
+      <c r="C275">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>387979742</v>
+      </c>
+      <c r="B276" t="s">
+        <v>80</v>
+      </c>
+      <c r="C276">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>392943584</v>
+      </c>
+      <c r="B277" t="s">
+        <v>237</v>
+      </c>
+      <c r="C277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>398107130</v>
+      </c>
+      <c r="B278" t="s">
+        <v>29</v>
+      </c>
+      <c r="C278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>402615980</v>
+      </c>
+      <c r="B279" t="s">
+        <v>238</v>
+      </c>
+      <c r="C279">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>403250903</v>
+      </c>
+      <c r="B280" t="s">
+        <v>239</v>
+      </c>
+      <c r="C280">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>403807500</v>
+      </c>
+      <c r="B281" t="s">
+        <v>240</v>
+      </c>
+      <c r="C281">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>406438362</v>
+      </c>
+      <c r="B282" t="s">
+        <v>241</v>
+      </c>
+      <c r="C282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>408521867</v>
+      </c>
+      <c r="B283" t="s">
+        <v>242</v>
+      </c>
+      <c r="C283">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>416588235</v>
+      </c>
+      <c r="B284" t="s">
+        <v>243</v>
+      </c>
+      <c r="C284">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>416604045</v>
+      </c>
+      <c r="B285" t="s">
+        <v>244</v>
+      </c>
+      <c r="C285">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>417163502</v>
+      </c>
+      <c r="B286" t="s">
+        <v>245</v>
+      </c>
+      <c r="C286">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>418873209</v>
+      </c>
+      <c r="B287" t="s">
+        <v>246</v>
+      </c>
+      <c r="C287">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>418879575</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>429931521</v>
+      </c>
+      <c r="B289" t="s">
+        <v>247</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>432601689</v>
+      </c>
+      <c r="B290" t="s">
+        <v>248</v>
+      </c>
+      <c r="C290">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>435250296</v>
+      </c>
+      <c r="B291" t="s">
+        <v>249</v>
+      </c>
+      <c r="C291">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>440786672</v>
+      </c>
+      <c r="B292" t="s">
+        <v>250</v>
+      </c>
+      <c r="C292">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>442723995</v>
+      </c>
+      <c r="B293" t="s">
+        <v>251</v>
+      </c>
+      <c r="C293">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>443647106</v>
+      </c>
+      <c r="B294" t="s">
+        <v>252</v>
+      </c>
+      <c r="C294">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>445455493</v>
+      </c>
+      <c r="B295" t="s">
+        <v>253</v>
+      </c>
+      <c r="C295">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>447991788</v>
+      </c>
+      <c r="B296" t="s">
+        <v>254</v>
+      </c>
+      <c r="C296">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>460320329</v>
+      </c>
+      <c r="B297" t="s">
+        <v>255</v>
+      </c>
+      <c r="C297">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>460417643</v>
+      </c>
+      <c r="B298" t="s">
+        <v>256</v>
+      </c>
+      <c r="C298">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>464507061</v>
+      </c>
+      <c r="B299" t="s">
+        <v>257</v>
+      </c>
+      <c r="C299">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>465512006</v>
+      </c>
+      <c r="B300" t="s">
+        <v>258</v>
+      </c>
+      <c r="C300">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>465719380</v>
+      </c>
+      <c r="B301" t="s">
+        <v>259</v>
+      </c>
+      <c r="C301">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>466763207</v>
+      </c>
+      <c r="B302" t="s">
+        <v>83</v>
+      </c>
+      <c r="C302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>471089644</v>
+      </c>
+      <c r="B303" t="s">
+        <v>260</v>
+      </c>
+      <c r="C303">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>474452493</v>
+      </c>
+      <c r="B304" t="s">
+        <v>261</v>
+      </c>
+      <c r="C304">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>474646089</v>
+      </c>
+      <c r="B305" t="s">
+        <v>262</v>
+      </c>
+      <c r="C305">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>476129959</v>
+      </c>
+      <c r="B306" t="s">
+        <v>263</v>
+      </c>
+      <c r="C306">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>477094819</v>
+      </c>
+      <c r="B307" t="s">
+        <v>264</v>
+      </c>
+      <c r="C307">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>482304032</v>
+      </c>
+      <c r="B308" t="s">
+        <v>265</v>
+      </c>
+      <c r="C308">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>486813016</v>
+      </c>
+      <c r="B309" t="s">
+        <v>266</v>
+      </c>
+      <c r="C309">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>487132085</v>
+      </c>
+      <c r="B310" t="s">
+        <v>267</v>
+      </c>
+      <c r="C310">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>489026275</v>
+      </c>
+      <c r="B311" t="s">
+        <v>268</v>
+      </c>
+      <c r="C311">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>489654951</v>
+      </c>
+      <c r="B312" t="s">
+        <v>269</v>
+      </c>
+      <c r="C312">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>495547305</v>
+      </c>
+      <c r="B313" t="s">
+        <v>270</v>
+      </c>
+      <c r="C313">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>498006846</v>
+      </c>
+      <c r="B314" t="s">
+        <v>271</v>
+      </c>
+      <c r="C314">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>499068531</v>
+      </c>
+      <c r="B315" t="s">
+        <v>272</v>
+      </c>
+      <c r="C315">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>501545467</v>
+      </c>
+      <c r="B316" t="s">
+        <v>273</v>
+      </c>
+      <c r="C316">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>502139138</v>
+      </c>
+      <c r="B317" t="s">
+        <v>274</v>
+      </c>
+      <c r="C317">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>502662007</v>
+      </c>
+      <c r="B318" t="s">
+        <v>275</v>
+      </c>
+      <c r="C318">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>502895535</v>
+      </c>
+      <c r="B319" t="s">
+        <v>276</v>
+      </c>
+      <c r="C319">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>504958190</v>
+      </c>
+      <c r="B320" t="s">
+        <v>277</v>
+      </c>
+      <c r="C320">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>511677212</v>
+      </c>
+      <c r="B321" t="s">
+        <v>278</v>
+      </c>
+      <c r="C321">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>513546378</v>
+      </c>
+      <c r="B322" t="s">
+        <v>279</v>
+      </c>
+      <c r="C322">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>518387894</v>
+      </c>
+      <c r="B323" t="s">
+        <v>280</v>
+      </c>
+      <c r="C323">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>518512716</v>
+      </c>
+      <c r="B324" t="s">
+        <v>281</v>
+      </c>
+      <c r="C324">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>518514854</v>
+      </c>
+      <c r="B325" t="s">
+        <v>282</v>
+      </c>
+      <c r="C325">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>524138321</v>
+      </c>
+      <c r="B326" t="s">
+        <v>283</v>
+      </c>
+      <c r="C326">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>524762571</v>
+      </c>
+      <c r="B327" t="s">
+        <v>284</v>
+      </c>
+      <c r="C327">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>525165185</v>
+      </c>
+      <c r="B328" t="s">
+        <v>285</v>
+      </c>
+      <c r="C328">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>525464310</v>
+      </c>
+      <c r="B329" t="s">
+        <v>286</v>
+      </c>
+      <c r="C329">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>538346556</v>
+      </c>
+      <c r="B330" t="s">
+        <v>287</v>
+      </c>
+      <c r="C330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>538498981</v>
+      </c>
+      <c r="B331" t="s">
+        <v>288</v>
+      </c>
+      <c r="C331">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>539267572</v>
+      </c>
+      <c r="B332" t="s">
+        <v>289</v>
+      </c>
+      <c r="C332">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>539408483</v>
+      </c>
+      <c r="B333" t="s">
+        <v>290</v>
+      </c>
+      <c r="C333">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>539663465</v>
+      </c>
+      <c r="B334" t="s">
+        <v>291</v>
+      </c>
+      <c r="C334">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>540212946</v>
+      </c>
+      <c r="B335" t="s">
+        <v>292</v>
+      </c>
+      <c r="C335">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>541201582</v>
+      </c>
+      <c r="B336" t="s">
+        <v>293</v>
+      </c>
+      <c r="C336">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>541531984</v>
+      </c>
+      <c r="B337" t="s">
+        <v>294</v>
+      </c>
+      <c r="C337">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>541640647</v>
+      </c>
+      <c r="B338" t="s">
+        <v>295</v>
+      </c>
+      <c r="C338">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>541713587</v>
+      </c>
+      <c r="B339" t="s">
+        <v>296</v>
+      </c>
+      <c r="C339">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>541860018</v>
+      </c>
+      <c r="B340" t="s">
+        <v>297</v>
+      </c>
+      <c r="C340">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>543418338</v>
+      </c>
+      <c r="B341" t="s">
+        <v>298</v>
+      </c>
+      <c r="C341">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>543449117</v>
+      </c>
+      <c r="B342" t="s">
+        <v>299</v>
+      </c>
+      <c r="C342">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>543750555</v>
+      </c>
+      <c r="B343" t="s">
+        <v>300</v>
+      </c>
+      <c r="C343">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>544803792</v>
+      </c>
+      <c r="B344" t="s">
+        <v>301</v>
+      </c>
+      <c r="C344">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>545394580</v>
+      </c>
+      <c r="B345" t="s">
+        <v>302</v>
+      </c>
+      <c r="C345">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>546303697</v>
+      </c>
+      <c r="B346" t="s">
+        <v>303</v>
+      </c>
+      <c r="C346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>548348543</v>
+      </c>
+      <c r="B347" t="s">
+        <v>108</v>
+      </c>
+      <c r="C347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>549942445</v>
+      </c>
+      <c r="B348" t="s">
+        <v>183</v>
+      </c>
+      <c r="C348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>549952530</v>
+      </c>
+      <c r="B349" t="s">
+        <v>304</v>
+      </c>
+      <c r="C349">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>551572920</v>
+      </c>
+      <c r="B350" t="s">
+        <v>305</v>
+      </c>
+      <c r="C350">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>551619903</v>
+      </c>
+      <c r="B351" t="s">
+        <v>160</v>
+      </c>
+      <c r="C351">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>551620460</v>
+      </c>
+      <c r="B352" t="s">
+        <v>183</v>
+      </c>
+      <c r="C352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>558484736</v>
+      </c>
+      <c r="B353" t="s">
+        <v>306</v>
+      </c>
+      <c r="C353">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>558485720</v>
+      </c>
+      <c r="B354" t="s">
+        <v>160</v>
+      </c>
+      <c r="C354">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>559335042</v>
+      </c>
+      <c r="B355" t="s">
+        <v>160</v>
+      </c>
+      <c r="C355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>559677640</v>
+      </c>
+      <c r="B356" t="s">
+        <v>307</v>
+      </c>
+      <c r="C356">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>559797322</v>
+      </c>
+      <c r="B357" t="s">
+        <v>308</v>
+      </c>
+      <c r="C357">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>560174339</v>
+      </c>
+      <c r="B358" t="s">
+        <v>309</v>
+      </c>
+      <c r="C358">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>560582291</v>
+      </c>
+      <c r="B359" t="s">
+        <v>310</v>
+      </c>
+      <c r="C359">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>561173793</v>
+      </c>
+      <c r="B360" t="s">
+        <v>311</v>
+      </c>
+      <c r="C360">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>561181101</v>
+      </c>
+      <c r="B361" t="s">
+        <v>312</v>
+      </c>
+      <c r="C361">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>561273996</v>
+      </c>
+      <c r="B362" t="s">
+        <v>313</v>
+      </c>
+      <c r="C362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>561519936</v>
+      </c>
+      <c r="B363" t="s">
+        <v>61</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>562820070</v>
+      </c>
+      <c r="B364" t="s">
+        <v>314</v>
+      </c>
+      <c r="C364">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>563183064</v>
+      </c>
+      <c r="B365" t="s">
+        <v>315</v>
+      </c>
+      <c r="C365">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>563858844</v>
+      </c>
+      <c r="B366" t="s">
+        <v>306</v>
+      </c>
+      <c r="C366">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>564553110</v>
+      </c>
+      <c r="B367" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="C367">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>565422540</v>
+      </c>
+      <c r="B368" t="s">
+        <v>313</v>
+      </c>
+      <c r="C368">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
